--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat dia diem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -20,148 +15,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$K$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>DANH</author>
-  </authors>
-  <commentList>
-    <comment ref="F9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DANH:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Người review đánh trạng thái</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -523,12 +382,41 @@
   <si>
     <t>Create date: 13/01/2016</t>
   </si>
+  <si>
+    <t>Reviewer: Lê Phát Danh</t>
+  </si>
+  <si>
+    <t>Unnecessary</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>file layout chưa chép vào 02_ScreenDesign</t>
+  </si>
+  <si>
+    <t>Chưa thấy checkInput</t>
+  </si>
+  <si>
+    <t>Chưa order by khi đổ nguồn combo</t>
+  </si>
+  <si>
+    <t>Màn hình chuẩn, không sử dụng CustomerIndex</t>
+  </si>
+  <si>
+    <t>- Control Name mô tả chưa đúng
+- Đang nhầm lẫn các xử lý không có check cũng đang được đưa vào
+- CheckType chưa đúng</t>
+  </si>
+  <si>
+    <t>Data Type Name định nghĩa chưa đúng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,19 +448,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -755,12 +630,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -862,25 +737,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,6 +805,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,7 +1150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,10 +1182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1339,7 +1216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1515,14 +1391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1687,7 +1563,7 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="33"/>
@@ -1789,7 +1665,9 @@
         <v>111</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -1821,7 +1699,9 @@
         <v>111</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -1853,7 +1733,9 @@
         <v>111</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -1885,7 +1767,9 @@
         <v>111</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -1915,7 +1799,9 @@
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -1945,9 +1831,13 @@
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -1979,7 +1869,9 @@
         <v>111</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2011,7 +1903,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -2045,7 +1939,9 @@
         <v>111</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -2077,7 +1973,9 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -2109,7 +2007,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -2141,7 +2041,9 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -2173,7 +2075,9 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -2205,7 +2109,9 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2818,16 +2724,15 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="51" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C13" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2989,7 +2894,7 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="33"/>
@@ -3091,7 +2996,9 @@
         <v>111</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -3125,7 +3032,9 @@
         <v>111</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -3153,7 +3062,9 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -3183,7 +3094,9 @@
       <c r="F13" s="13"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3211,7 +3124,9 @@
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3239,7 +3154,9 @@
       <c r="F15" s="13"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3269,7 +3186,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -3299,7 +3218,9 @@
       <c r="F17" s="13"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -3329,7 +3250,9 @@
       <c r="F18" s="13"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -3361,9 +3284,13 @@
         <v>111</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -3391,7 +3318,9 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -3421,7 +3350,9 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3453,7 +3384,9 @@
       <c r="F22" s="13"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3485,7 +3418,9 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3519,9 +3454,13 @@
         <v>111</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -3553,7 +3492,9 @@
         <v>111</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3585,7 +3526,9 @@
       <c r="F26" s="15"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3617,7 +3560,9 @@
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3651,7 +3596,9 @@
         <v>111</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -3685,7 +3632,9 @@
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -3719,7 +3668,9 @@
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -3753,7 +3704,9 @@
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -4130,16 +4083,15 @@
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C14" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4301,7 +4253,7 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="31" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="J8" s="32"/>
       <c r="K8" s="33"/>
@@ -4403,7 +4355,9 @@
         <v>111</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -4435,7 +4389,9 @@
         <v>111</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -4467,9 +4423,13 @@
         <v>111</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -4499,7 +4459,9 @@
         <v>111</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -4533,7 +4495,9 @@
         <v>111</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -4567,7 +4531,9 @@
         <v>111</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -4597,7 +4563,9 @@
       <c r="F16" s="13"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -4631,7 +4599,9 @@
         <v>111</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -4663,7 +4633,9 @@
         <v>111</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -4679,7 +4651,7 @@
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
     </row>
-    <row r="19" spans="2:23" ht="30">
+    <row r="19" spans="2:23" ht="90">
       <c r="B19" s="9">
         <v>9</v>
       </c>
@@ -4697,9 +4669,13 @@
         <v>111</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="59" t="s">
+        <v>125</v>
+      </c>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -4725,7 +4701,9 @@
       <c r="F20" s="13"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4759,9 +4737,13 @@
         <v>111</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -4793,7 +4775,9 @@
         <v>111</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -4823,7 +4807,9 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -4855,7 +4841,9 @@
         <v>111</v>
       </c>
       <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -4889,7 +4877,9 @@
         <v>111</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -4919,7 +4909,9 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -4951,7 +4943,9 @@
         <v>111</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -4983,7 +4977,9 @@
         <v>111</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -5013,7 +5009,9 @@
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -5043,7 +5041,9 @@
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -5073,7 +5073,9 @@
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -5105,7 +5107,9 @@
       <c r="F32" s="14"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -5511,16 +5515,15 @@
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C8" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C8" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6695,6 +6698,5 @@
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat dia diem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="2"/>
   </bookViews>
@@ -15,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$K$44</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -415,7 +420,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -713,26 +718,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -776,6 +763,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -805,9 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1150,7 +1155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,9 +1187,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1216,6 +1222,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1391,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
@@ -1426,16 +1433,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1444,28 +1451,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1507,94 +1514,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="28" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="28" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="28" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="31" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="31" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="31" t="s">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="31" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1661,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="29" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1690,7 +1697,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="35"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1724,7 +1731,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1758,7 +1765,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1792,7 +1799,7 @@
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="35"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1831,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -2675,14 +2682,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D10:D15"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="U8:W8"/>
     <mergeCell ref="O7:Q7"/>
@@ -2695,6 +2694,14 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G40 I10:J40 L10:M40 O10:P40 R10:S40 U10:V40">
     <cfRule type="expression" dxfId="13" priority="15">
@@ -2728,11 +2735,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C13" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2759,16 +2766,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2777,28 +2784,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2838,94 +2845,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="28" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="28" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="28" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="31" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="31" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="31" t="s">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="31" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3028,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -3055,12 +3062,14 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="49"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="18" t="s">
         <v>87</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11" t="s">
         <v>111</v>
@@ -3087,12 +3096,14 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="18" t="s">
         <v>88</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11" t="s">
         <v>111</v>
@@ -3117,7 +3128,7 @@
       <c r="C14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="18" t="s">
         <v>103</v>
       </c>
@@ -3147,7 +3158,7 @@
       <c r="C15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="49"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="27" t="s">
         <v>83</v>
       </c>
@@ -3179,12 +3190,14 @@
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
         <v>111</v>
@@ -3211,7 +3224,7 @@
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="18" t="s">
         <v>20</v>
       </c>
@@ -3243,7 +3256,7 @@
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="18" t="s">
         <v>7</v>
       </c>
@@ -3275,7 +3288,7 @@
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="18" t="s">
         <v>24</v>
       </c>
@@ -3287,7 +3300,9 @@
       <c r="I19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K19" s="11" t="s">
         <v>122</v>
       </c>
@@ -3311,7 +3326,7 @@
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="18" t="s">
         <v>64</v>
       </c>
@@ -3343,7 +3358,7 @@
       <c r="C21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
@@ -3457,7 +3472,9 @@
       <c r="I24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J24" s="11"/>
+      <c r="J24" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K24" s="11" t="s">
         <v>123</v>
       </c>
@@ -3495,7 +3512,9 @@
       <c r="I25" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
@@ -4036,6 +4055,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="D11:D21"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
@@ -4047,15 +4075,6 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G41 I10:J41 L10:M41 O10:P41 R10:S41 U10:V41">
     <cfRule type="expression" dxfId="9" priority="4">
@@ -4087,11 +4106,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C14" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F5" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4118,16 +4137,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4136,28 +4155,28 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -4197,94 +4216,94 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="28" t="s">
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="28" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="28" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="28" t="s">
+      <c r="S7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="45"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="31" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="31" t="s">
+      <c r="H8" s="48"/>
+      <c r="I8" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="31" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="31" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="31" t="s">
+      <c r="P8" s="47"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="31" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="48"/>
     </row>
     <row r="9" spans="1:23" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -4344,7 +4363,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="54" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4380,7 +4399,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
@@ -4414,7 +4433,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="11" t="s">
         <v>56</v>
       </c>
@@ -4426,7 +4445,9 @@
       <c r="I12" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K12" s="11" t="s">
         <v>124</v>
       </c>
@@ -4450,7 +4471,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="11" t="s">
         <v>57</v>
       </c>
@@ -4520,7 +4541,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="54" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4556,7 +4577,7 @@
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="11" t="s">
         <v>45</v>
       </c>
@@ -4588,7 +4609,7 @@
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="54" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -4624,7 +4645,7 @@
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="13" t="s">
         <v>80</v>
       </c>
@@ -4658,7 +4679,7 @@
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="51" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -4672,8 +4693,10 @@
       <c r="I19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="59" t="s">
+      <c r="J19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>125</v>
       </c>
       <c r="L19" s="11"/>
@@ -4694,7 +4717,7 @@
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="26" t="s">
         <v>97</v>
       </c>
@@ -4704,7 +4727,9 @@
       <c r="I20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J20" s="11"/>
+      <c r="J20" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -4740,7 +4765,9 @@
       <c r="I21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="J21" s="11"/>
+      <c r="J21" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="K21" s="11" t="s">
         <v>126</v>
       </c>
@@ -4764,7 +4791,7 @@
       <c r="C22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="51" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -4800,7 +4827,7 @@
       <c r="C23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="3" t="s">
         <v>66</v>
       </c>
@@ -4832,7 +4859,7 @@
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="11" t="s">
         <v>68</v>
       </c>
@@ -4866,7 +4893,7 @@
       <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="54" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -4902,7 +4929,7 @@
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="13" t="s">
         <v>59</v>
       </c>
@@ -4934,7 +4961,7 @@
       <c r="C27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="54"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="13" t="s">
         <v>69</v>
       </c>
@@ -4968,7 +4995,7 @@
       <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="55"/>
       <c r="E28" s="13" t="s">
         <v>60</v>
       </c>
@@ -5002,7 +5029,7 @@
       <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
@@ -5034,7 +5061,7 @@
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="54"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="14" t="s">
         <v>74</v>
       </c>
@@ -5066,7 +5093,7 @@
       <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="23" t="s">
         <v>81</v>
       </c>
@@ -5463,6 +5490,21 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
@@ -5473,21 +5515,6 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G43 L10:M43 O10:P43 R10:S43 U10:V43 I10:J43">
     <cfRule type="expression" dxfId="6" priority="4">
@@ -5519,7 +5546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C8" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
@@ -5549,15 +5576,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5566,26 +5593,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5622,89 +5649,89 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28" t="s">
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="29"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="28" t="s">
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="28" t="s">
+      <c r="R7" s="44"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="45"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="31" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="48"/>
+      <c r="H8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="31" t="s">
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="31" t="s">
+      <c r="L8" s="47"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="31" t="s">
+      <c r="O8" s="47"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="31" t="s">
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="32"/>
-      <c r="V8" s="33"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="48"/>
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -5761,7 +5788,7 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5790,7 +5817,7 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
@@ -5817,7 +5844,7 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
@@ -5844,7 +5871,7 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="13" t="s">
         <v>78</v>
       </c>
@@ -5871,7 +5898,7 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="11" t="s">
         <v>94</v>
       </c>
@@ -5898,7 +5925,7 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="13" t="s">
         <v>95</v>
       </c>
@@ -5925,7 +5952,7 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
@@ -6647,6 +6674,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
@@ -6657,15 +6693,6 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="T8:V8"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:F40 H10:I40 K10:L40 N10:O40 Q10:R40 T10:U40">
     <cfRule type="expression" dxfId="3" priority="4">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat dia diem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -18,14 +13,16 @@
     <sheet name="Others" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Database!$A$1:$AB$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Document!$A$1:$AB$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Layout!$A$1:$AD$44</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -420,7 +417,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -635,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -721,6 +718,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -761,27 +782,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,7 +1155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,10 +1187,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,7 +1221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1398,14 +1396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1420,29 +1418,30 @@
     <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
     <col min="9" max="10" width="10" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="12" max="12" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="10" style="3" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1450,35 +1449,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+    <row r="3" spans="1:25" s="1" customFormat="1" ht="15.75">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="B4" s="4" t="s">
         <v>117</v>
       </c>
@@ -1489,7 +1488,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1501,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25">
       <c r="B6" s="4" t="s">
         <v>112</v>
       </c>
@@ -1513,95 +1512,99 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:25">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="43" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46" t="s">
+      <c r="X7" s="31"/>
+      <c r="Y7" s="32"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.5">
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+    </row>
+    <row r="9" spans="1:25" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1618,50 +1621,56 @@
         <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="U9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="V9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W9" s="8" t="s">
+      <c r="Y9" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="37" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1689,15 +1698,17 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1723,15 +1734,17 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1757,15 +1770,17 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" ht="45">
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+    </row>
+    <row r="13" spans="1:25" ht="45">
       <c r="B13" s="9">
         <v>4</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1791,15 +1806,17 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" ht="30">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+    </row>
+    <row r="14" spans="1:25" ht="30">
       <c r="B14" s="9">
         <v>5</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1823,15 +1840,17 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="1:23" ht="30">
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+    </row>
+    <row r="15" spans="1:25" ht="30">
       <c r="B15" s="9">
         <v>6</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -1856,9 +1875,13 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="W15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="B16" s="9">
         <v>7</v>
       </c>
@@ -1893,8 +1916,10 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23" ht="30">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+    </row>
+    <row r="17" spans="2:25" ht="30">
       <c r="B17" s="9">
         <v>8</v>
       </c>
@@ -1927,8 +1952,10 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+    </row>
+    <row r="18" spans="2:25">
       <c r="B18" s="9">
         <v>9</v>
       </c>
@@ -1963,8 +1990,10 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+    </row>
+    <row r="19" spans="2:25">
       <c r="B19" s="9">
         <v>10</v>
       </c>
@@ -1997,8 +2026,10 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+    </row>
+    <row r="20" spans="2:25">
       <c r="B20" s="9">
         <v>11</v>
       </c>
@@ -2031,8 +2062,10 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="2:25">
       <c r="B21" s="9">
         <v>12</v>
       </c>
@@ -2065,8 +2098,10 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="2:25">
       <c r="B22" s="9">
         <v>13</v>
       </c>
@@ -2099,8 +2134,10 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23" ht="27.75" customHeight="1">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+    </row>
+    <row r="23" spans="2:25" ht="27.75" customHeight="1">
       <c r="B23" s="9">
         <v>14</v>
       </c>
@@ -2133,8 +2170,10 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+    </row>
+    <row r="24" spans="2:25">
       <c r="B24" s="9">
         <v>15</v>
       </c>
@@ -2159,8 +2198,10 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+    </row>
+    <row r="25" spans="2:25">
       <c r="B25" s="9">
         <v>16</v>
       </c>
@@ -2185,8 +2226,10 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23" ht="15" customHeight="1">
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+    </row>
+    <row r="26" spans="2:25" ht="15" customHeight="1">
       <c r="B26" s="9">
         <v>17</v>
       </c>
@@ -2211,8 +2254,10 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+    </row>
+    <row r="27" spans="2:25">
       <c r="B27" s="9">
         <v>18</v>
       </c>
@@ -2237,8 +2282,10 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+    </row>
+    <row r="28" spans="2:25">
       <c r="B28" s="9">
         <v>19</v>
       </c>
@@ -2263,8 +2310,10 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+    </row>
+    <row r="29" spans="2:25">
       <c r="B29" s="9">
         <v>20</v>
       </c>
@@ -2289,8 +2338,10 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+    </row>
+    <row r="30" spans="2:25">
       <c r="B30" s="9">
         <v>21</v>
       </c>
@@ -2315,8 +2366,10 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+    </row>
+    <row r="31" spans="2:25">
       <c r="B31" s="9">
         <v>22</v>
       </c>
@@ -2341,8 +2394,10 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+    </row>
+    <row r="32" spans="2:25">
       <c r="B32" s="9">
         <v>23</v>
       </c>
@@ -2367,8 +2422,10 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+    </row>
+    <row r="33" spans="2:25">
       <c r="B33" s="9">
         <v>24</v>
       </c>
@@ -2393,8 +2450,10 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+    </row>
+    <row r="34" spans="2:25">
       <c r="B34" s="9">
         <v>25</v>
       </c>
@@ -2419,8 +2478,10 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+    </row>
+    <row r="35" spans="2:25">
       <c r="B35" s="9">
         <v>26</v>
       </c>
@@ -2445,8 +2506,10 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+    </row>
+    <row r="36" spans="2:25">
       <c r="B36" s="9">
         <v>27</v>
       </c>
@@ -2471,8 +2534,10 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+    </row>
+    <row r="37" spans="2:25" ht="15" customHeight="1">
       <c r="B37" s="9">
         <v>28</v>
       </c>
@@ -2497,8 +2562,10 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+    </row>
+    <row r="38" spans="2:25">
       <c r="B38" s="9">
         <v>29</v>
       </c>
@@ -2523,8 +2590,10 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+    </row>
+    <row r="39" spans="2:25">
       <c r="B39" s="9">
         <v>30</v>
       </c>
@@ -2549,8 +2618,10 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+    </row>
+    <row r="40" spans="2:25">
       <c r="B40" s="9">
         <v>31</v>
       </c>
@@ -2575,8 +2646,10 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+    </row>
+    <row r="41" spans="2:25">
       <c r="B41" s="9">
         <v>32</v>
       </c>
@@ -2601,8 +2674,10 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+    </row>
+    <row r="42" spans="2:25">
       <c r="B42" s="9">
         <v>33</v>
       </c>
@@ -2627,8 +2702,10 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+    </row>
+    <row r="43" spans="2:25">
       <c r="B43" s="9">
         <v>34</v>
       </c>
@@ -2653,8 +2730,10 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+    </row>
+    <row r="44" spans="2:25">
       <c r="B44" s="9">
         <v>35</v>
       </c>
@@ -2679,21 +2758,13 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
+  <mergeCells count="22">
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="W8:Y8"/>
     <mergeCell ref="D10:D15"/>
     <mergeCell ref="B1:D3"/>
     <mergeCell ref="E1:I3"/>
@@ -2702,29 +2773,26 @@
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C7:C9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G40 I10:J40 L10:M40 O10:P40 R10:S40 U10:V40">
-    <cfRule type="expression" dxfId="13" priority="15">
+  <conditionalFormatting sqref="G10:G43 I10:J43 L10:L43 N10:O43 Q10:R43 T10:U43 W10:X43">
+    <cfRule type="expression" dxfId="8" priority="16">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41 I41:J41 L41:M41 O41:P41 R41:S41 U41:V41">
-    <cfRule type="expression" dxfId="12" priority="3">
-      <formula>G41="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42 I42:J42 L42:M42 O42:P42 R42:S42 U42:V42">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>G42="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43 I43:J43 L43:M43 O43:P43 R43:S43 U43:V43">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>G43="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:V43 G10:G43 R10:S43 I10:J43 L10:M43 O10:P43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10:U43 W10:X43 G10:G43 I10:J43 L10:L43 N10:O43 Q10:R43">
       <formula1>"OK, NG, Unnecessary"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2735,11 +2803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F16" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2762,20 +2830,22 @@
     <col min="20" max="20" width="25.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="24" max="25" width="10" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2783,35 +2853,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2822,7 +2892,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2833,7 +2903,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2844,95 +2914,105 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:26">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="43" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.5">
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -2984,8 +3064,17 @@
       <c r="W9" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -3020,15 +3109,18 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="B11" s="9">
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -3056,13 +3148,16 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23" ht="45">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26" ht="45">
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="18" t="s">
         <v>87</v>
       </c>
@@ -3088,15 +3183,18 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23" ht="90">
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:26" ht="90">
       <c r="B13" s="9">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="18" t="s">
         <v>88</v>
       </c>
@@ -3122,13 +3220,16 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="18" t="s">
         <v>103</v>
       </c>
@@ -3152,13 +3253,16 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="27" t="s">
         <v>83</v>
       </c>
@@ -3182,15 +3286,18 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="B16" s="9">
         <v>4</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="51"/>
       <c r="E16" s="18" t="s">
         <v>40</v>
       </c>
@@ -3216,15 +3323,18 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="2:26">
       <c r="B17" s="9">
         <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="18" t="s">
         <v>20</v>
       </c>
@@ -3248,15 +3358,18 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="2:26">
       <c r="B18" s="9">
         <v>6</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="50"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="18" t="s">
         <v>7</v>
       </c>
@@ -3280,15 +3393,18 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:26">
       <c r="B19" s="9">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="18" t="s">
         <v>24</v>
       </c>
@@ -3318,15 +3434,20 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="9">
         <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="18" t="s">
         <v>64</v>
       </c>
@@ -3350,15 +3471,18 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="9">
         <v>9</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
@@ -3382,8 +3506,11 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="2:26">
       <c r="B22" s="9">
         <v>10</v>
       </c>
@@ -3416,8 +3543,11 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23" ht="30">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="2:26" ht="30">
       <c r="B23" s="9">
         <v>11</v>
       </c>
@@ -3450,8 +3580,11 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23" ht="27.75" customHeight="1">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="2:26" ht="27.75" customHeight="1">
       <c r="B24" s="9">
         <v>12</v>
       </c>
@@ -3490,8 +3623,13 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23" ht="30">
+      <c r="X24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="2:26" ht="30">
       <c r="B25" s="9">
         <v>13</v>
       </c>
@@ -3528,8 +3666,13 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23" ht="30">
+      <c r="X25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="2:26" ht="30">
       <c r="B26" s="9">
         <v>14</v>
       </c>
@@ -3562,8 +3705,11 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23" ht="15" customHeight="1">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="2:26" ht="15" customHeight="1">
       <c r="B27" s="9">
         <v>15</v>
       </c>
@@ -3596,8 +3742,11 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23" ht="30">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" spans="2:26" ht="30">
       <c r="B28" s="9">
         <v>16</v>
       </c>
@@ -3632,8 +3781,11 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="2:26">
       <c r="B29" s="9">
         <v>17</v>
       </c>
@@ -3668,8 +3820,11 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+    </row>
+    <row r="30" spans="2:26">
       <c r="B30" s="9">
         <v>18</v>
       </c>
@@ -3704,8 +3859,11 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+    </row>
+    <row r="31" spans="2:26">
       <c r="B31" s="9">
         <v>19</v>
       </c>
@@ -3740,8 +3898,11 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+    </row>
+    <row r="32" spans="2:26">
       <c r="B32" s="9">
         <v>20</v>
       </c>
@@ -3766,8 +3927,11 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+    </row>
+    <row r="33" spans="2:26">
       <c r="B33" s="9">
         <v>21</v>
       </c>
@@ -3792,8 +3956,11 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+    </row>
+    <row r="34" spans="2:26">
       <c r="B34" s="9">
         <v>22</v>
       </c>
@@ -3818,8 +3985,11 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35" s="9">
         <v>23</v>
       </c>
@@ -3844,8 +4014,11 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+    </row>
+    <row r="36" spans="2:26">
       <c r="B36" s="9">
         <v>24</v>
       </c>
@@ -3870,8 +4043,11 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="2:26">
       <c r="B37" s="9">
         <v>25</v>
       </c>
@@ -3896,8 +4072,11 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="2:23" ht="15" customHeight="1">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+    </row>
+    <row r="38" spans="2:26" ht="15" customHeight="1">
       <c r="B38" s="9">
         <v>26</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39" s="9">
         <v>27</v>
       </c>
@@ -3948,8 +4130,11 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="2:23">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" spans="2:26">
       <c r="B40" s="9">
         <v>28</v>
       </c>
@@ -3974,8 +4159,11 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+    </row>
+    <row r="41" spans="2:26">
       <c r="B41" s="9">
         <v>29</v>
       </c>
@@ -4000,8 +4188,11 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" spans="2:26">
       <c r="B42" s="9">
         <v>30</v>
       </c>
@@ -4026,8 +4217,11 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43" s="9">
         <v>31</v>
       </c>
@@ -4052,18 +4246,14 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
+  <mergeCells count="22">
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
     <mergeCell ref="D11:D21"/>
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
@@ -4075,42 +4265,38 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G41 I10:J41 L10:M41 O10:P41 R10:S41 U10:V41">
-    <cfRule type="expression" dxfId="9" priority="4">
+  <conditionalFormatting sqref="G10:G43 I10:J43 L10:M43 O10:P43 R10:S43 U10:V43 X10:Y43">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42 I42:J42 L42:M42 O42:P42 R42:S42 U42:V42">
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>G42="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43 I43:J43 L43:M43 O43:P43 R43:S43 U43:V43">
-    <cfRule type="expression" dxfId="7" priority="2">
-      <formula>G43="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:V43 G10:G43 R10:S43 I10:J43 L10:M43 O10:P43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U10:V43 X10:Y43 O10:P43 L10:M43 I10:J43 R10:S43 G10:G43">
       <formula1>"OK, NG, Unnecessary"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F5" zoomScale="96" zoomScaleNormal="70" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4133,20 +4319,22 @@
     <col min="20" max="20" width="25.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="3" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="25.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="3"/>
+    <col min="24" max="25" width="10" style="3" customWidth="1"/>
+    <col min="26" max="26" width="25.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4154,35 +4342,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:26">
       <c r="B4" s="4" t="s">
         <v>116</v>
       </c>
@@ -4193,7 +4381,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:26">
       <c r="B5" s="4" t="s">
         <v>115</v>
       </c>
@@ -4204,7 +4392,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:26">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -4215,95 +4403,105 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:23">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:26">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="43" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="43" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="43" t="s">
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="43" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="43" t="s">
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="38"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="46" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="46" t="s">
+      <c r="H8" s="35"/>
+      <c r="I8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="46" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="46" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="46" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="46" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="47"/>
-      <c r="W8" s="48"/>
-    </row>
-    <row r="9" spans="1:23" ht="28.5">
+      <c r="V8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+    </row>
+    <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -4355,15 +4553,24 @@
       <c r="W9" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="B10" s="9">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4391,15 +4598,18 @@
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="B11" s="9">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="3" t="s">
         <v>47</v>
       </c>
@@ -4425,15 +4635,18 @@
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="B12" s="9">
         <v>2</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="56"/>
       <c r="E12" s="11" t="s">
         <v>56</v>
       </c>
@@ -4463,15 +4676,20 @@
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="B13" s="9">
         <v>3</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="56"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="11" t="s">
         <v>57</v>
       </c>
@@ -4497,8 +4715,11 @@
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
-    </row>
-    <row r="14" spans="1:23" ht="33.75" customHeight="1">
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="1:26" ht="33.75" customHeight="1">
       <c r="B14" s="9">
         <v>4</v>
       </c>
@@ -4533,15 +4754,18 @@
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="B15" s="9">
         <v>5</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="55" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -4569,15 +4793,18 @@
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="B16" s="9">
         <v>6</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="11" t="s">
         <v>45</v>
       </c>
@@ -4601,15 +4828,18 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-    </row>
-    <row r="17" spans="2:23" ht="30">
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="2:26" ht="30">
       <c r="B17" s="9">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="55" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="13" t="s">
@@ -4637,15 +4867,18 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-    </row>
-    <row r="18" spans="2:23" ht="30">
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+    </row>
+    <row r="18" spans="2:26" ht="30">
       <c r="B18" s="9">
         <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="13" t="s">
         <v>80</v>
       </c>
@@ -4671,15 +4904,18 @@
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
-    </row>
-    <row r="19" spans="2:23" ht="90">
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+    </row>
+    <row r="19" spans="2:26" ht="90">
       <c r="B19" s="9">
         <v>9</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="52" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="13" t="s">
@@ -4711,13 +4947,18 @@
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="X19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="28"/>
+    </row>
+    <row r="20" spans="2:26">
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="26" t="s">
         <v>97</v>
       </c>
@@ -4743,8 +4984,13 @@
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="X20" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+    </row>
+    <row r="21" spans="2:26">
       <c r="B21" s="9">
         <v>10</v>
       </c>
@@ -4783,15 +5029,20 @@
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="X21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+    </row>
+    <row r="22" spans="2:26">
       <c r="B22" s="9">
         <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="52" t="s">
         <v>50</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -4819,15 +5070,18 @@
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
-    </row>
-    <row r="23" spans="2:23">
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+    </row>
+    <row r="23" spans="2:26">
       <c r="B23" s="9">
         <v>12</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="3" t="s">
         <v>66</v>
       </c>
@@ -4851,15 +5105,18 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-    </row>
-    <row r="24" spans="2:23">
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+    </row>
+    <row r="24" spans="2:26">
       <c r="B24" s="9">
         <v>13</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="11" t="s">
         <v>68</v>
       </c>
@@ -4885,15 +5142,18 @@
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
-    </row>
-    <row r="25" spans="2:23">
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+    </row>
+    <row r="25" spans="2:26">
       <c r="B25" s="9">
         <v>14</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="55" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -4921,15 +5181,18 @@
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
-    </row>
-    <row r="26" spans="2:23">
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+    </row>
+    <row r="26" spans="2:26">
       <c r="B26" s="9">
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="13" t="s">
         <v>59</v>
       </c>
@@ -4953,15 +5216,18 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
-    </row>
-    <row r="27" spans="2:23" ht="30">
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+    </row>
+    <row r="27" spans="2:26" ht="30">
       <c r="B27" s="9">
         <v>17</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="13" t="s">
         <v>69</v>
       </c>
@@ -4987,15 +5253,18 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:23" ht="30">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+    </row>
+    <row r="28" spans="2:26" ht="30">
       <c r="B28" s="9">
         <v>18</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="13" t="s">
         <v>60</v>
       </c>
@@ -5021,15 +5290,18 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-    </row>
-    <row r="29" spans="2:23" ht="35.25" customHeight="1">
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+    </row>
+    <row r="29" spans="2:26" ht="35.25" customHeight="1">
       <c r="B29" s="9">
         <v>19</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
@@ -5053,15 +5325,18 @@
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
-    </row>
-    <row r="30" spans="2:23">
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+    </row>
+    <row r="30" spans="2:26">
       <c r="B30" s="9">
         <v>20</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="14" t="s">
         <v>74</v>
       </c>
@@ -5085,15 +5360,18 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-    </row>
-    <row r="31" spans="2:23" ht="30">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+    </row>
+    <row r="31" spans="2:26" ht="30">
       <c r="B31" s="9">
         <v>21</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="56"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="23" t="s">
         <v>81</v>
       </c>
@@ -5117,8 +5395,11 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
-    </row>
-    <row r="32" spans="2:23">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+    </row>
+    <row r="32" spans="2:26">
       <c r="B32" s="9">
         <v>22</v>
       </c>
@@ -5151,8 +5432,11 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
-    </row>
-    <row r="33" spans="2:23">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+    </row>
+    <row r="33" spans="2:26">
       <c r="B33" s="9">
         <v>23</v>
       </c>
@@ -5176,8 +5460,11 @@
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
-    </row>
-    <row r="34" spans="2:23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+    </row>
+    <row r="34" spans="2:26">
       <c r="B34" s="9">
         <v>24</v>
       </c>
@@ -5202,8 +5489,11 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-    </row>
-    <row r="35" spans="2:23">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+    </row>
+    <row r="35" spans="2:26">
       <c r="B35" s="9">
         <v>25</v>
       </c>
@@ -5228,8 +5518,11 @@
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
-    </row>
-    <row r="36" spans="2:23">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+    </row>
+    <row r="36" spans="2:26">
       <c r="B36" s="9">
         <v>26</v>
       </c>
@@ -5254,8 +5547,11 @@
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
-    </row>
-    <row r="37" spans="2:23">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+    </row>
+    <row r="37" spans="2:26">
       <c r="B37" s="9">
         <v>27</v>
       </c>
@@ -5280,8 +5576,11 @@
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
-    </row>
-    <row r="38" spans="2:23">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+    </row>
+    <row r="38" spans="2:26">
       <c r="B38" s="9">
         <v>28</v>
       </c>
@@ -5306,8 +5605,11 @@
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
-    </row>
-    <row r="39" spans="2:23">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+    </row>
+    <row r="39" spans="2:26">
       <c r="B39" s="9">
         <v>29</v>
       </c>
@@ -5332,8 +5634,11 @@
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
-    </row>
-    <row r="40" spans="2:23" ht="15" customHeight="1">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+    </row>
+    <row r="40" spans="2:26" ht="15" customHeight="1">
       <c r="B40" s="9">
         <v>30</v>
       </c>
@@ -5357,8 +5662,11 @@
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
-    </row>
-    <row r="41" spans="2:23">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+    </row>
+    <row r="41" spans="2:26">
       <c r="B41" s="9">
         <v>31</v>
       </c>
@@ -5383,8 +5691,11 @@
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
-    </row>
-    <row r="42" spans="2:23">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+    </row>
+    <row r="42" spans="2:26">
       <c r="B42" s="9">
         <v>32</v>
       </c>
@@ -5409,8 +5720,11 @@
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
-    </row>
-    <row r="43" spans="2:23">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+    </row>
+    <row r="43" spans="2:26">
       <c r="B43" s="9">
         <v>33</v>
       </c>
@@ -5435,8 +5749,11 @@
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-    </row>
-    <row r="44" spans="2:23">
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+    </row>
+    <row r="44" spans="2:26">
       <c r="B44" s="9">
         <v>34</v>
       </c>
@@ -5461,8 +5778,11 @@
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
-    </row>
-    <row r="45" spans="2:23">
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+    </row>
+    <row r="45" spans="2:26">
       <c r="B45" s="9">
         <v>35</v>
       </c>
@@ -5487,24 +5807,14 @@
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
       <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
+  <mergeCells count="27">
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="X8:Z8"/>
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:K8"/>
@@ -5515,38 +5825,40 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
   </mergeCells>
-  <conditionalFormatting sqref="G10:G43 L10:M43 O10:P43 R10:S43 U10:V43 I10:J43">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="G10:G45 I10:J45 L10:M45 O10:P45 R10:S45 U10:V45 X10:Y45">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44 I44:J44 L44:M44 O44:P44 R44:S44 U44:V44">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>G44="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45 I45:J45 L45:M45 O45:P45 R45:S45 U45:V45">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>G45="NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:P45 L10:M45 U10:V45 R10:S45 G10:G45 I10:J45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:P45 X10:Y45 I10:J45 G10:G45 R10:S45 U10:V45 L10:M45">
       <formula1>"OK, NG, Unnecessary"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="11" max="1048575" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C8" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
@@ -5576,15 +5888,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5593,26 +5905,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5649,89 +5961,89 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="43" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="43" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="43" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="44"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="43" t="s">
+      <c r="R7" s="31"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="46" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="46" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="46" t="s">
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="46" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="46" t="s">
+      <c r="O8" s="34"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="46" t="s">
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="47"/>
-      <c r="V8" s="48"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -5788,7 +6100,7 @@
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5817,7 +6129,7 @@
       <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="11" t="s">
         <v>67</v>
       </c>
@@ -5844,7 +6156,7 @@
       <c r="B12" s="9">
         <v>3</v>
       </c>
-      <c r="C12" s="58"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="13" t="s">
         <v>77</v>
       </c>
@@ -5871,7 +6183,7 @@
       <c r="B13" s="9">
         <v>4</v>
       </c>
-      <c r="C13" s="58"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="13" t="s">
         <v>78</v>
       </c>
@@ -5898,7 +6210,7 @@
       <c r="B14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="11" t="s">
         <v>94</v>
       </c>
@@ -5925,7 +6237,7 @@
       <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="13" t="s">
         <v>95</v>
       </c>
@@ -5952,7 +6264,7 @@
       <c r="B16" s="9">
         <v>7</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="13" t="s">
         <v>96</v>
       </c>
@@ -6674,15 +6986,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
@@ -6693,24 +6996,33 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="T8:V8"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:F40 H10:I40 K10:L40 N10:O40 Q10:R40 T10:U40">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>F10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41:I41 K41:L41 N41:O41 Q41:R41 T41:U41">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>F41="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 H42:I42 K42:L42 N42:O42 Q42:R42 T42:U42">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>F42="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43 H43:I43 K43:L43 N43:O43 Q43:R43 T43:U43">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>F43="NG"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat dia diem/CF0142_BAChecklistERP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat dia diem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="653" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -417,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -739,9 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -784,6 +786,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -819,42 +824,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1155,7 +1125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,9 +1157,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,6 +1192,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1396,11 +1368,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <pane xSplit="5" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleSheetLayoutView="93" workbookViewId="0">
+      <pane xSplit="5" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
@@ -1432,16 +1404,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1450,28 +1422,28 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="15.75">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1513,25 +1485,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
@@ -1561,11 +1533,11 @@
       <c r="Y7" s="32"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="33" t="s">
         <v>113</v>
       </c>
@@ -1600,11 +1572,11 @@
     </row>
     <row r="9" spans="1:25" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1642,7 @@
       <c r="C10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -1708,7 +1680,7 @@
       <c r="C11" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="19" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1716,7 @@
       <c r="C12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="19" t="s">
         <v>37</v>
       </c>
@@ -1780,7 +1752,7 @@
       <c r="C13" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="18" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1788,7 @@
       <c r="C14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1850,7 +1822,7 @@
       <c r="C15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="20" t="s">
         <v>63</v>
       </c>
@@ -2763,6 +2735,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="D10:D15"/>
@@ -2779,15 +2757,9 @@
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G43 I10:J43 L10:L43 N10:O43 Q10:R43 T10:U43 W10:X43">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2803,11 +2775,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E10" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2836,16 +2808,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2854,28 +2826,28 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2915,25 +2887,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
@@ -2966,11 +2938,11 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="33" t="s">
         <v>114</v>
       </c>
@@ -3008,11 +2980,11 @@
     </row>
     <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -3437,7 +3409,9 @@
       <c r="X19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Y19" s="11"/>
+      <c r="Y19" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="2:26">
@@ -4252,6 +4226,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="D11:D21"/>
@@ -4265,18 +4248,9 @@
     <mergeCell ref="O8:Q8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G43 I10:J43 L10:M43 O10:P43 R10:S43 U10:V43 X10:Y43">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4292,11 +4266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4325,16 +4299,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4343,28 +4317,28 @@
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
@@ -4404,25 +4378,25 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="36"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
@@ -4455,11 +4429,11 @@
       <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="33" t="s">
         <v>113</v>
       </c>
@@ -4497,11 +4471,11 @@
     </row>
     <row r="9" spans="1:26" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="7" t="s">
         <v>17</v>
       </c>
@@ -5032,7 +5006,9 @@
       <c r="X21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="Y21" s="11"/>
+      <c r="Y21" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="2:26">
@@ -5813,6 +5789,21 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E1:I3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="X7:Z7"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="U7:W7"/>
@@ -5825,24 +5816,9 @@
     <mergeCell ref="L7:N7"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="R7:T7"/>
-    <mergeCell ref="E1:I3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D19:D20"/>
   </mergeCells>
   <conditionalFormatting sqref="G10:G45 I10:J45 L10:M45 O10:P45 R10:S45 U10:V45 X10:Y45">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>G10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5858,7 +5834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="C8" zoomScale="96" zoomScaleSheetLayoutView="96" workbookViewId="0">
@@ -5888,15 +5864,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5905,26 +5881,26 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
@@ -5961,22 +5937,22 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
@@ -6004,10 +5980,10 @@
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="33" t="s">
         <v>16</v>
       </c>
@@ -6040,10 +6016,10 @@
     </row>
     <row r="9" spans="1:22" ht="28.5">
       <c r="A9" s="6"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
@@ -6986,6 +6962,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="D1:H3"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
@@ -6996,33 +6981,24 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="T8:V8"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="D1:H3"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="F10:F40 H10:I40 K10:L40 N10:O40 Q10:R40 T10:U40">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>F10="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41:I41 K41:L41 N41:O41 Q41:R41 T41:U41">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>F41="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42 H42:I42 K42:L42 N42:O42 Q42:R42 T42:U42">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>F42="NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43 H43:I43 K43:L43 N43:O43 Q43:R43 T43:U43">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>F43="NG"</formula>
     </cfRule>
   </conditionalFormatting>
